--- a/dati/popolazione.xlsx
+++ b/dati/popolazione.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27126"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27628"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Luca\Repos\elezioni-EMR\dati\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{32314B04-8CF8-4F3C-852B-ED28D161C215}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8CCD36E5-0CD3-477E-AC51-A85E8EFFF81D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -27,44 +27,51 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
   <si>
-    <t>Piacenza</t>
-  </si>
-  <si>
-    <t>Parma</t>
-  </si>
-  <si>
-    <t>Reggio nell'Emilia</t>
-  </si>
-  <si>
-    <t>Modena</t>
-  </si>
-  <si>
-    <t>Bologna</t>
-  </si>
-  <si>
-    <t>Ferrara</t>
-  </si>
-  <si>
-    <t>Ravenna</t>
-  </si>
-  <si>
-    <t>Forlì-Cesena</t>
-  </si>
-  <si>
-    <t>Rimini</t>
-  </si>
-  <si>
-    <t>Provincia</t>
-  </si>
-  <si>
-    <t>Popolazione</t>
+    <t>PIACENZA</t>
+  </si>
+  <si>
+    <t>PARMA</t>
+  </si>
+  <si>
+    <t>REGGIO NELL'EMILIA</t>
+  </si>
+  <si>
+    <t>MODENA</t>
+  </si>
+  <si>
+    <t>BOLOGNA</t>
+  </si>
+  <si>
+    <t>FERRARA</t>
+  </si>
+  <si>
+    <t>RAVENNA</t>
+  </si>
+  <si>
+    <t>FORLI'-CESENA</t>
+  </si>
+  <si>
+    <t>RIMINI</t>
+  </si>
+  <si>
+    <t>PROVINCIA</t>
+  </si>
+  <si>
+    <t>ELETTORI</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -90,14 +97,18 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
     <cellStyle name="Normale" xfId="0" builtinId="0"/>
+    <cellStyle name="Percentuale" xfId="1" builtinId="5"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -378,7 +389,7 @@
   <dimension ref="A1:B10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1:C1048576"/>
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -395,19 +406,19 @@
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
+      <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>284616</v>
+        <v>224936</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
+      <c r="A3" s="2" t="s">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>427434</v>
+        <v>352490</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
@@ -415,7 +426,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>517316</v>
+        <v>410900</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
@@ -423,7 +434,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>685777</v>
+        <v>543234</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
@@ -431,7 +442,7 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>976243</v>
+        <v>799923</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
@@ -439,7 +450,7 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>353481</v>
+        <v>277304</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
@@ -447,7 +458,7 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>384761</v>
+        <v>302994</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
@@ -455,7 +466,7 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>390738</v>
+        <v>310303</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
@@ -463,7 +474,7 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>321769</v>
+        <v>278269</v>
       </c>
     </row>
   </sheetData>
